--- a/tools/Item Config Generator/drop_amount.xlsx
+++ b/tools/Item Config Generator/drop_amount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoe\Code Projects\PycharmProjects\CoatiraneAdventures\tools\Item Config Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B2BFCF-B80F-476E-BA94-DDE5BBD3957A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7467B536-C665-4700-9150-3F0CD25A54C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4395" yWindow="2010" windowWidth="25875" windowHeight="17130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3647" uniqueCount="360">
   <si>
     <t>Floor Number</t>
   </si>
@@ -1177,6 +1177,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1229,7 +1232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1239,6 +1242,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1579,7 +1586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1616,1382 +1625,1382 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>46</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>290</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>170.30600000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>58</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>25.414000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>113</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>273</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>195.86799999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>55</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>29.285</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>107</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>465</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>288.00599999999997</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>88</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>43.179000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>130</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>510</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>323.024</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>93</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>48.317</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>156</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>486</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>326.52600000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>16</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>92</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>49.164999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>78</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>642</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>355.99599999999998</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>118</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>53.371000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>174</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>550</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>361.34800000000001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>17</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>97</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>54.186</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>87</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>711</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>402.39800000000002</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>9</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>132</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>60.401000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>71</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>809</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>436.28</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>6</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>147</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>65.539000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>267</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>627</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>443.05599999999998</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>31</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>115</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>66.105000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>95</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>865</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>477.88799999999998</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>7</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>159</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>71.421999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>194</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>760</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>484.22</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>24</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>132</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>72.808000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>282</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>778</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>527.59400000000005</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>33</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>144</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>79.319999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>269</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>893</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>566.69799999999998</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>33</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>147</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>85.438000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>85</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>1065</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>575.94200000000001</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>9</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>199</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>86.677999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>69</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>1179</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>626.04600000000005</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>200</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>93.63</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>236</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>1144</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>670.6</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>32</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>193</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>100.90600000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>332</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>1014</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>675.73800000000006</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>33</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>166</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>100.628</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>329</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>1135</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>734.72199999999998</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>43</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>190</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>110.658</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>205</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>1247</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>724.48</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>25</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>205</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>108.595</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>256</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>1304</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>778.96400000000006</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>28</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <v>218</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="5">
         <v>116.791</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>269</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>1387</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>839.82600000000002</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>34</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>227</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="5">
         <v>126.154</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>284</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>1398</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>823.50400000000002</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>38</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>238</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="5">
         <v>123.64</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>492</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>1066</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>780.94</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <v>66</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <v>186</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="5">
         <v>116.705</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>267</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>1533</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>876.97799999999995</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>32</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <v>262</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="5">
         <v>131.41</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>232</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>1696</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>942.78200000000004</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>29</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>294</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="5">
         <v>141.346</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>296</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>1730</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>1024.0319999999999</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>32</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="5">
         <v>283</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="5">
         <v>153.49199999999999</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>325</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>1707</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>1027.424</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>36</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="5">
         <v>276</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="5">
         <v>154.21</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>352</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>1774</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>1094.0519999999999</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>49</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="5">
         <v>291</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="5">
         <v>164.274</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>175</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>2133</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>1150.8040000000001</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>20</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="5">
         <v>353</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="5">
         <v>173.017</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>628</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>1570</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>1106.4939999999999</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <v>81</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="5">
         <v>258</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="5">
         <v>166.25399999999999</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>358</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>1502</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>938.64599999999996</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <v>39</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="5">
         <v>247</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="5">
         <v>141.078</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>106</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>2478</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>1258.6079999999999</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="5">
         <v>10</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="5">
         <v>417</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="5">
         <v>189.43100000000001</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>419</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>2149</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>1284.7180000000001</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="5">
         <v>59</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="5">
         <v>359</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="5">
         <v>192.63200000000001</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>609</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>2111</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>1365.19</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="5">
         <v>86</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="5">
         <v>351</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="5">
         <v>205.62200000000001</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>216</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>2540</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>1339.154</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <v>26</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="5">
         <v>408</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="5">
         <v>200.14</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>405</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>2473</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>1434.9780000000001</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="5">
         <v>54</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="5">
         <v>402</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="5">
         <v>216.19300000000001</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>423</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>2455</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>1442.748</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <v>58</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="5">
         <v>393</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="5">
         <v>215.98</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>413</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <v>2629</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>1517.672</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="5">
         <v>57</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="5">
         <v>434</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="5">
         <v>227.61799999999999</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>550</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>2652</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>1595.37</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="5">
         <v>66</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="5">
         <v>430</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="5">
         <v>239.64699999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>323</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>1287</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="5">
         <v>796.33399999999995</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="5">
         <v>39</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="5">
         <v>215</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="5">
         <v>119.383</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>340</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>1328</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="5">
         <v>858.34400000000005</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="5">
         <v>48</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="5">
         <v>224</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="5">
         <v>128.732</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>517</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>3589</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <v>2050.8200000000002</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="5">
         <v>74</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="5">
         <v>557</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="5">
         <v>307.91000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>291</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>4115</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="5">
         <v>2198.1759999999999</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="5">
         <v>39</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="5">
         <v>651</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="5">
         <v>330.137</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>739</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>4053</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5">
         <v>2407.962</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="5">
         <v>102</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="5">
         <v>634</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="5">
         <v>360.99599999999998</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>1069</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <v>3841</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="5">
         <v>2445.7280000000001</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="5">
         <v>147</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="5">
         <v>595</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="5">
         <v>366.87799999999999</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>352</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <v>5262</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="5">
         <v>2781.71</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="5">
         <v>42</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="5">
         <v>844</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="5">
         <v>417.702</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>540</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <v>5520</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="5">
         <v>2973.53</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="5">
         <v>80</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="5">
         <v>855</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="5">
         <v>444.80099999999999</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>832</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="5">
         <v>5660</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="5">
         <v>3197.596</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="5">
         <v>123</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="5">
         <v>870</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="5">
         <v>478.82100000000003</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>779</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>5713</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="5">
         <v>3201.2220000000002</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="5">
         <v>105</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="5">
         <v>901</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="5">
         <v>480.49200000000002</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>877</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="5">
         <v>6029</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="5">
         <v>3517.6260000000002</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="5">
         <v>123</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="5">
         <v>947</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="5">
         <v>526.19600000000003</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>1017</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="5">
         <v>6477</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="5">
         <v>3699</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="5">
         <v>138</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="5">
         <v>998</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="5">
         <v>553.66999999999996</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>2681</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5">
         <v>5631</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="5">
         <v>4100.0420000000004</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="5">
         <v>379</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="5">
         <v>857</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="5">
         <v>614.99199999999996</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>1370</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="5">
         <v>7244</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="5">
         <v>4264.3440000000001</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="5">
         <v>204</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="5">
         <v>1098</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="5">
         <v>638.67600000000004</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>372</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="5">
         <v>8870</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="5">
         <v>4721.8980000000001</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="5">
         <v>48</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="5">
         <v>1400</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="5">
         <v>709.59299999999996</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>805</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="5">
         <v>9255</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="5">
         <v>5146.0680000000002</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="5">
         <v>124</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="5">
         <v>1437</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="5">
         <v>772.79700000000003</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>342</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="5">
         <v>10316</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="5">
         <v>5274.8540000000003</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="5">
         <v>46</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="5">
         <v>1616</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="5">
         <v>790.91</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="5">
         <v>2964</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="5">
         <v>8476</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="5">
         <v>5688.6779999999999</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="5">
         <v>410</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="5">
         <v>1290</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="5">
         <v>853.47</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>812</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="5">
         <v>11396</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="5">
         <v>6085.174</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="5">
         <v>110</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="5">
         <v>1751</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="5">
         <v>912.53200000000004</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="5">
         <v>2013</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="5">
         <v>10821</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="5">
         <v>6477.942</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="5">
         <v>311</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="5">
         <v>1677</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="5">
         <v>971.81399999999996</v>
       </c>
     </row>
@@ -3007,6 +3016,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -10146,10 +10160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10158,6 +10172,7 @@
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10188,6 +10203,10 @@
       <c r="D2">
         <v>28.890999999999998</v>
       </c>
+      <c r="E2" s="6">
+        <f>D2/D5*100</f>
+        <v>75.78563559099733</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -10202,6 +10221,10 @@
       <c r="D3">
         <v>8.8529999999999998</v>
       </c>
+      <c r="E3" s="6">
+        <f>D3/D5*100</f>
+        <v>23.22281097528986</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -10216,198 +10239,198 @@
       <c r="D4">
         <v>0.378</v>
       </c>
+      <c r="E4" s="6">
+        <f>D4/D5*100</f>
+        <v>0.99155343371281679</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C2:C4)</f>
+        <v>101</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D2:D4)</f>
+        <v>38.122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>116</v>
-      </c>
-      <c r="D6">
-        <v>40.052</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <f>D6*E6</f>
-        <v>1201.56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D7">
-        <v>13.375</v>
+        <v>40.052</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F26" si="0">D7*E7</f>
-        <v>0</v>
+        <f>D7*E7</f>
+        <v>1201.56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>13.375</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F27" si="0">D8*E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>43</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>10.433</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>35</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>365.15499999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>31</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>4.5990000000000002</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>30</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>137.97</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>57</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>14.009</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>50</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>700.45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>119</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>40.162999999999997</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>30</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>1204.8899999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>111</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>36.122999999999998</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>40</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>1444.9199999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <v>12.420999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -10416,7 +10439,7 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>13.013999999999999</v>
+        <v>12.420999999999999</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -10428,16 +10451,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>5.125</v>
+        <v>13.013999999999999</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -10449,142 +10472,142 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>10.367000000000001</v>
+        <v>5.125</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>362.84500000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>4.9119999999999999</v>
+        <v>10.367000000000001</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>362.84500000000003</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>8.08</v>
+        <v>4.9119999999999999</v>
       </c>
       <c r="E18">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>484.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>12.962</v>
+        <v>8.08</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>484.8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>7.9059999999999997</v>
+        <v>12.962</v>
       </c>
       <c r="E20">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>553.41999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>12.973000000000001</v>
+        <v>7.9059999999999997</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>553.41999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>4.5910000000000002</v>
+        <v>12.973000000000001</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -10596,16 +10619,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>4.9880000000000004</v>
+        <v>4.5910000000000002</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -10617,16 +10640,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>4.7869999999999999</v>
+        <v>4.9880000000000004</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -10638,16 +10661,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>4.2469999999999999</v>
+        <v>4.7869999999999999</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -10656,43 +10682,61 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>1.577</v>
-      </c>
-      <c r="E26">
-        <v>20</v>
+        <v>4.2469999999999999</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>31.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>1.577</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>31.54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>357</v>
       </c>
-      <c r="B27">
-        <f>SUM(B6:B26)</f>
+      <c r="B28">
+        <f>SUM(B7:B27)</f>
         <v>21</v>
       </c>
-      <c r="C27">
-        <f t="shared" ref="C27:D27" si="1">SUM(C6:C26)</f>
+      <c r="C28">
+        <f t="shared" ref="C28:D28" si="1">SUM(C7:C27)</f>
         <v>1068</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <f t="shared" si="1"/>
         <v>266.70400000000001</v>
       </c>
-      <c r="F27">
-        <f>SUM(F6:F26)</f>
+      <c r="F28">
+        <f>SUM(F7:F27)</f>
         <v>6487.55</v>
       </c>
     </row>
@@ -10709,6 +10753,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
